--- a/data/trans_orig/P14C32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8983F9D9-6EC5-4134-B32C-8F02AFE9AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF02A1B8-BCBE-41DB-A142-0835F52147C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6843F019-D8F7-458A-8016-85B75497EB3A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA8DECF-F7B5-4E12-B0E7-011414F34B17}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
   <si>
     <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2015 (Tasa respuesta: 0,79%)</t>
   </si>
@@ -170,19 +170,19 @@
     <t>68,94%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>63,48%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>27,79%</t>
@@ -194,19 +194,19 @@
     <t>31,06%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>25,1%</t>
@@ -218,7 +218,7 @@
     <t>6,28%</t>
   </si>
   <si>
-    <t>27,49%</t>
+    <t>27,73%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -284,115 +284,118 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>36,7%</t>
+    <t>37,91%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>32,62%</t>
+    <t>36,69%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>62,29%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>52,32%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>45,2%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>31,9%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>47,88%</t>
+    <t>45,34%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CCC4F7-75ED-4700-AF5E-002DE5B72A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2673BC1-541E-47D8-BF5D-8F62EF3E1EB2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1875,10 +1878,10 @@
         <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -1887,13 +1890,13 @@
         <v>3648</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1964,13 @@
         <v>9389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -1976,13 +1979,13 @@
         <v>28248</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -1991,13 +1994,13 @@
         <v>37638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2015,13 @@
         <v>2112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2027,13 +2030,13 @@
         <v>8979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2042,13 +2045,13 @@
         <v>11091</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2066,13 @@
         <v>2357</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2078,13 +2081,13 @@
         <v>6125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2093,13 +2096,13 @@
         <v>8481</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2158,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF02A1B8-BCBE-41DB-A142-0835F52147C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD71437F-D16F-4D46-9205-97AD7CC62CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA8DECF-F7B5-4E12-B0E7-011414F34B17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{773F5EE5-6C77-4A1B-BFDA-E2912EBAD4E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
   <si>
-    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2015 (Tasa respuesta: 0,79%)</t>
+    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2016 (Tasa respuesta: 0,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -107,28 +107,28 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>69,88%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>20,46%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>35,81%</t>
+    <t>23,4%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -137,31 +137,31 @@
     <t>16,44%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>68,92%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>44,07%</t>
+    <t>41,39%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>47,11%</t>
@@ -170,19 +170,19 @@
     <t>68,94%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>63,48%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>27,79%</t>
@@ -194,34 +194,37 @@
     <t>31,06%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>25,1%</t>
   </si>
   <si>
+    <t>76,17%</t>
+  </si>
+  <si>
     <t>18,74%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>43,9%</t>
@@ -230,19 +233,19 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>53,53%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>56,1%</t>
@@ -251,31 +254,31 @@
     <t>32,68%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>47,19%</t>
+    <t>48,06%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>42,98%</t>
+    <t>48,44%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -284,118 +287,115 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>36,69%</t>
+    <t>34,48%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>80,53%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>44,17%</t>
+    <t>39,06%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>31,9%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>45,34%</t>
+    <t>43,3%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2673BC1-541E-47D8-BF5D-8F62EF3E1EB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E24AEAE-2765-4B33-8EF5-A2D142981D88}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1478,13 +1478,13 @@
         <v>880</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,7 +1540,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1552,7 +1552,7 @@
         <v>890</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
@@ -1567,13 +1567,13 @@
         <v>5891</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1582,13 +1582,13 @@
         <v>6781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,7 +1603,7 @@
         <v>1138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
@@ -1618,13 +1618,13 @@
         <v>3477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1633,13 +1633,13 @@
         <v>4615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>1271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1684,13 +1684,13 @@
         <v>1271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1773,13 +1773,13 @@
         <v>8233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -1791,10 +1791,10 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1824,13 @@
         <v>1033</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1982,10 +1982,10 @@
         <v>99</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -1994,13 +1994,13 @@
         <v>37638</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2015,13 @@
         <v>2112</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2030,13 +2030,13 @@
         <v>8979</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2045,10 +2045,10 @@
         <v>11091</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>111</v>
